--- a/results/xlsx_file/Analysis_B1.xlsx
+++ b/results/xlsx_file/Analysis_B1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps311\Programming\PycharmProjects\PE2_WorkingSP\project_local\results\xlsx_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89AA38F-C4AF-487C-A1AC-772910B490A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF0D83-47FE-43B4-991B-383EA95C9DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$99</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -67,397 +64,400 @@
     <t>Error description</t>
   </si>
   <si>
-    <t>Analysis Wavelengh</t>
+    <t>Analysis Wavelength</t>
+  </si>
+  <si>
+    <t>Rsq of IV</t>
+  </si>
+  <si>
+    <t>I at 1V[A]</t>
+  </si>
+  <si>
+    <t>HyperLink</t>
+  </si>
+  <si>
+    <t>P184640</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>GORILLA5</t>
+  </si>
+  <si>
+    <t>DCM_LMZC</t>
+  </si>
+  <si>
+    <t>MZMCTE_LULAB_450_500</t>
+  </si>
+  <si>
+    <t>20190715_191538</t>
+  </si>
+  <si>
+    <t>process LMZ</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B1 team member</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>No Error</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>['NaN']</t>
+  </si>
+  <si>
+    <t>20190715_192145</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>20190715_202217</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20190715_195142</t>
+  </si>
+  <si>
+    <t>20190715_193943</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20190715_202835</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20190715_194543</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>Rsq_Ref Error</t>
+  </si>
+  <si>
+    <t>20190715_195751</t>
+  </si>
+  <si>
+    <t>20190715_190927</t>
+  </si>
+  <si>
+    <t>20190715_193343</t>
+  </si>
+  <si>
+    <t>20190715_192743</t>
+  </si>
+  <si>
+    <t>20190715_200355</t>
+  </si>
+  <si>
+    <t>20190715_201553</t>
+  </si>
+  <si>
+    <t>20190715_200955</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>DCM_LMZO</t>
+  </si>
+  <si>
+    <t>MZMOTE_LULAB_380_500</t>
+  </si>
+  <si>
+    <t>20190526_092258</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>20190526_095449</t>
+  </si>
+  <si>
+    <t>20190526_151412</t>
+  </si>
+  <si>
+    <t>20190526_123434</t>
+  </si>
+  <si>
+    <t>20190526_113043</t>
+  </si>
+  <si>
+    <t>20190526_154606</t>
+  </si>
+  <si>
+    <t>20190526_120237</t>
+  </si>
+  <si>
+    <t>20190526_130626</t>
+  </si>
+  <si>
+    <t>20190526_085101</t>
+  </si>
+  <si>
+    <t>20190526_105849</t>
+  </si>
+  <si>
+    <t>20190526_102652</t>
+  </si>
+  <si>
+    <t>20190526_133820</t>
+  </si>
+  <si>
+    <t>20190526_144214</t>
+  </si>
+  <si>
+    <t>20190526_141016</t>
+  </si>
+  <si>
+    <t>20190712_120004</t>
+  </si>
+  <si>
+    <t>20190712_120136</t>
+  </si>
+  <si>
+    <t>20190712_121858</t>
+  </si>
+  <si>
+    <t>20190712_121019</t>
+  </si>
+  <si>
+    <t>20190712_120648</t>
+  </si>
+  <si>
+    <t>20190712_122031</t>
+  </si>
+  <si>
+    <t>20190712_120819</t>
+  </si>
+  <si>
+    <t>20190712_121202</t>
+  </si>
+  <si>
+    <t>20190712_115833</t>
+  </si>
+  <si>
+    <t>20190712_120501</t>
+  </si>
+  <si>
+    <t>20190712_120318</t>
+  </si>
+  <si>
+    <t>20190712_121352</t>
+  </si>
+  <si>
+    <t>20190712_121716</t>
+  </si>
+  <si>
+    <t>20190712_121533</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>20190531_081842</t>
+  </si>
+  <si>
+    <t>IV-fitting</t>
+  </si>
+  <si>
+    <t>20190531_085236</t>
+  </si>
+  <si>
+    <t>20190531_143054</t>
+  </si>
+  <si>
+    <t>20190531_114141</t>
+  </si>
+  <si>
+    <t>20190531_103403</t>
+  </si>
+  <si>
+    <t>20190531_150441</t>
+  </si>
+  <si>
+    <t>20190531_110751</t>
+  </si>
+  <si>
+    <t>20190531_121531</t>
+  </si>
+  <si>
+    <t>20190531_074448</t>
+  </si>
+  <si>
+    <t>20190531_100015</t>
+  </si>
+  <si>
+    <t>20190531_092627</t>
+  </si>
+  <si>
+    <t>20190531_124924</t>
+  </si>
+  <si>
+    <t>20190531_135701</t>
+  </si>
+  <si>
+    <t>20190531_132314</t>
+  </si>
+  <si>
+    <t>20190603_205838</t>
+  </si>
+  <si>
+    <t>20190603_210705</t>
+  </si>
+  <si>
+    <t>20190603_223141</t>
+  </si>
+  <si>
+    <t>20190603_214920</t>
+  </si>
+  <si>
+    <t>20190603_213227</t>
+  </si>
+  <si>
+    <t>20190603_224008</t>
+  </si>
+  <si>
+    <t>20190603_214054</t>
+  </si>
+  <si>
+    <t>20190603_215749</t>
+  </si>
+  <si>
+    <t>20190603_205010</t>
+  </si>
+  <si>
+    <t>20190603_212401</t>
+  </si>
+  <si>
+    <t>20190603_211533</t>
+  </si>
+  <si>
+    <t>20190603_220618</t>
+  </si>
+  <si>
+    <t>20190603_222311</t>
+  </si>
+  <si>
+    <t>20190603_221443</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>20190531_161607</t>
+  </si>
+  <si>
+    <t>20190531_164952</t>
+  </si>
+  <si>
+    <t>20190531_222808</t>
+  </si>
+  <si>
+    <t>20190531_193857</t>
+  </si>
+  <si>
+    <t>20190531_183125</t>
+  </si>
+  <si>
+    <t>20190531_230158</t>
+  </si>
+  <si>
+    <t>20190531_190512</t>
+  </si>
+  <si>
+    <t>20190531_201254</t>
+  </si>
+  <si>
+    <t>20190531_154219</t>
+  </si>
+  <si>
+    <t>20190531_175734</t>
+  </si>
+  <si>
+    <t>20190531_172343</t>
+  </si>
+  <si>
+    <t>20190531_204639</t>
+  </si>
+  <si>
+    <t>20190531_215419</t>
+  </si>
+  <si>
+    <t>20190531_212029</t>
+  </si>
+  <si>
+    <t>20190603_230049</t>
+  </si>
+  <si>
+    <t>20190603_230916</t>
+  </si>
+  <si>
+    <t>20190604_003352</t>
+  </si>
+  <si>
+    <t>20190603_235133</t>
+  </si>
+  <si>
+    <t>20190603_233439</t>
+  </si>
+  <si>
+    <t>20190604_004219</t>
+  </si>
+  <si>
+    <t>20190603_234307</t>
+  </si>
+  <si>
+    <t>20190604_000000</t>
+  </si>
+  <si>
+    <t>20190603_225223</t>
+  </si>
+  <si>
+    <t>20190603_232610</t>
+  </si>
+  <si>
+    <t>20190603_231744</t>
+  </si>
+  <si>
+    <t>20190604_000826</t>
+  </si>
+  <si>
+    <t>20190604_002525</t>
+  </si>
+  <si>
+    <t>20190604_001657</t>
+  </si>
+  <si>
+    <t>Max transmission of Ref spec(dB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I at -1V[A]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Rsq of Ref.spectrum(6th)</t>
-  </si>
-  <si>
-    <t>Max transmission of Ref spec(dB)</t>
-  </si>
-  <si>
-    <t>Rsq of IV</t>
-  </si>
-  <si>
-    <t>I at -1V[A]</t>
-  </si>
-  <si>
-    <t>I at 1V[A]</t>
-  </si>
-  <si>
-    <t>HyperLink</t>
-  </si>
-  <si>
-    <t>P184640</t>
-  </si>
-  <si>
-    <t>D07</t>
-  </si>
-  <si>
-    <t>GORILLA5</t>
-  </si>
-  <si>
-    <t>DCM_LMZC</t>
-  </si>
-  <si>
-    <t>MZMCTE_LULAB_450_500</t>
-  </si>
-  <si>
-    <t>20190715_191538</t>
-  </si>
-  <si>
-    <t>process LMZ</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B1 team member</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>No Error</t>
-  </si>
-  <si>
-    <t>1550</t>
-  </si>
-  <si>
-    <t>['NaN']</t>
-  </si>
-  <si>
-    <t>20190715_192145</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>20190715_202217</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20190715_195142</t>
-  </si>
-  <si>
-    <t>20190715_193943</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20190715_202835</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>20190715_194543</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>Rsq_Ref Error</t>
-  </si>
-  <si>
-    <t>20190715_195751</t>
-  </si>
-  <si>
-    <t>20190715_190927</t>
-  </si>
-  <si>
-    <t>20190715_193343</t>
-  </si>
-  <si>
-    <t>20190715_192743</t>
-  </si>
-  <si>
-    <t>20190715_200355</t>
-  </si>
-  <si>
-    <t>20190715_201553</t>
-  </si>
-  <si>
-    <t>20190715_200955</t>
-  </si>
-  <si>
-    <t>D08</t>
-  </si>
-  <si>
-    <t>DCM_LMZO</t>
-  </si>
-  <si>
-    <t>MZMOTE_LULAB_380_500</t>
-  </si>
-  <si>
-    <t>20190526_092258</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>20190526_095449</t>
-  </si>
-  <si>
-    <t>20190526_151412</t>
-  </si>
-  <si>
-    <t>20190526_123434</t>
-  </si>
-  <si>
-    <t>20190526_113043</t>
-  </si>
-  <si>
-    <t>20190526_154606</t>
-  </si>
-  <si>
-    <t>20190526_120237</t>
-  </si>
-  <si>
-    <t>20190526_130626</t>
-  </si>
-  <si>
-    <t>20190526_085101</t>
-  </si>
-  <si>
-    <t>20190526_105849</t>
-  </si>
-  <si>
-    <t>20190526_102652</t>
-  </si>
-  <si>
-    <t>20190526_133820</t>
-  </si>
-  <si>
-    <t>20190526_144214</t>
-  </si>
-  <si>
-    <t>20190526_141016</t>
-  </si>
-  <si>
-    <t>20190712_120004</t>
-  </si>
-  <si>
-    <t>20190712_120136</t>
-  </si>
-  <si>
-    <t>20190712_121858</t>
-  </si>
-  <si>
-    <t>20190712_121019</t>
-  </si>
-  <si>
-    <t>20190712_120648</t>
-  </si>
-  <si>
-    <t>20190712_122031</t>
-  </si>
-  <si>
-    <t>20190712_120819</t>
-  </si>
-  <si>
-    <t>20190712_121202</t>
-  </si>
-  <si>
-    <t>20190712_115833</t>
-  </si>
-  <si>
-    <t>20190712_120501</t>
-  </si>
-  <si>
-    <t>20190712_120318</t>
-  </si>
-  <si>
-    <t>20190712_121352</t>
-  </si>
-  <si>
-    <t>20190712_121716</t>
-  </si>
-  <si>
-    <t>20190712_121533</t>
-  </si>
-  <si>
-    <t>D23</t>
-  </si>
-  <si>
-    <t>20190531_081842</t>
-  </si>
-  <si>
-    <t>IV-fitting</t>
-  </si>
-  <si>
-    <t>20190531_085236</t>
-  </si>
-  <si>
-    <t>20190531_143054</t>
-  </si>
-  <si>
-    <t>20190531_114141</t>
-  </si>
-  <si>
-    <t>20190531_103403</t>
-  </si>
-  <si>
-    <t>20190531_150441</t>
-  </si>
-  <si>
-    <t>20190531_110751</t>
-  </si>
-  <si>
-    <t>20190531_121531</t>
-  </si>
-  <si>
-    <t>20190531_074448</t>
-  </si>
-  <si>
-    <t>20190531_100015</t>
-  </si>
-  <si>
-    <t>20190531_092627</t>
-  </si>
-  <si>
-    <t>20190531_124924</t>
-  </si>
-  <si>
-    <t>20190531_135701</t>
-  </si>
-  <si>
-    <t>20190531_132314</t>
-  </si>
-  <si>
-    <t>20190603_205838</t>
-  </si>
-  <si>
-    <t>20190603_210705</t>
-  </si>
-  <si>
-    <t>20190603_223141</t>
-  </si>
-  <si>
-    <t>20190603_214920</t>
-  </si>
-  <si>
-    <t>20190603_213227</t>
-  </si>
-  <si>
-    <t>20190603_224008</t>
-  </si>
-  <si>
-    <t>20190603_214054</t>
-  </si>
-  <si>
-    <t>20190603_215749</t>
-  </si>
-  <si>
-    <t>20190603_205010</t>
-  </si>
-  <si>
-    <t>20190603_212401</t>
-  </si>
-  <si>
-    <t>20190603_211533</t>
-  </si>
-  <si>
-    <t>20190603_220618</t>
-  </si>
-  <si>
-    <t>20190603_222311</t>
-  </si>
-  <si>
-    <t>20190603_221443</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>20190531_161607</t>
-  </si>
-  <si>
-    <t>20190531_164952</t>
-  </si>
-  <si>
-    <t>20190531_222808</t>
-  </si>
-  <si>
-    <t>20190531_193857</t>
-  </si>
-  <si>
-    <t>20190531_183125</t>
-  </si>
-  <si>
-    <t>20190531_230158</t>
-  </si>
-  <si>
-    <t>20190531_190512</t>
-  </si>
-  <si>
-    <t>20190531_201254</t>
-  </si>
-  <si>
-    <t>20190531_154219</t>
-  </si>
-  <si>
-    <t>20190531_175734</t>
-  </si>
-  <si>
-    <t>20190531_172343</t>
-  </si>
-  <si>
-    <t>20190531_204639</t>
-  </si>
-  <si>
-    <t>20190531_215419</t>
-  </si>
-  <si>
-    <t>20190531_212029</t>
-  </si>
-  <si>
-    <t>20190603_230049</t>
-  </si>
-  <si>
-    <t>20190603_230916</t>
-  </si>
-  <si>
-    <t>20190604_003352</t>
-  </si>
-  <si>
-    <t>20190603_235133</t>
-  </si>
-  <si>
-    <t>20190603_233439</t>
-  </si>
-  <si>
-    <t>20190604_004219</t>
-  </si>
-  <si>
-    <t>20190603_234307</t>
-  </si>
-  <si>
-    <t>20190604_000000</t>
-  </si>
-  <si>
-    <t>20190603_225223</t>
-  </si>
-  <si>
-    <t>20190603_232610</t>
-  </si>
-  <si>
-    <t>20190603_231744</t>
-  </si>
-  <si>
-    <t>20190604_000826</t>
-  </si>
-  <si>
-    <t>20190604_002525</t>
-  </si>
-  <si>
-    <t>20190604_001657</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -831,11 +831,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
@@ -884,22 +900,22 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
@@ -907,49 +923,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>0.99843353196279083</v>
@@ -967,7 +983,7 @@
         <v>6.7017049999999996E-3</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -975,49 +991,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3">
         <v>0.99722723427168958</v>
@@ -1035,7 +1051,7 @@
         <v>6.3283979999999998E-3</v>
       </c>
       <c r="V3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -1043,49 +1059,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q4">
         <v>0.99717181542963973</v>
@@ -1103,7 +1119,7 @@
         <v>6.3755959999999999E-3</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -1111,49 +1127,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q5">
         <v>0.99616248323652312</v>
@@ -1171,7 +1187,7 @@
         <v>6.3162349999999999E-3</v>
       </c>
       <c r="V5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -1179,49 +1195,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <v>0.99810423090734124</v>
@@ -1239,7 +1255,7 @@
         <v>6.532866E-3</v>
       </c>
       <c r="V6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -1247,49 +1263,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q7">
         <v>0.99887622898775252</v>
@@ -1307,7 +1323,7 @@
         <v>6.5197049999999998E-3</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -1315,49 +1331,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q8">
         <v>0.99510069266035939</v>
@@ -1375,7 +1391,7 @@
         <v>6.4017579999999996E-3</v>
       </c>
       <c r="V8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -1383,49 +1399,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q9">
         <v>0.99718761484209961</v>
@@ -1443,7 +1459,7 @@
         <v>6.0399130000000001E-3</v>
       </c>
       <c r="V9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -1451,49 +1467,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q10">
         <v>0.99858709121569034</v>
@@ -1511,7 +1527,7 @@
         <v>6.7072820000000002E-3</v>
       </c>
       <c r="V10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -1519,49 +1535,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q11">
         <v>0.99737713427479802</v>
@@ -1579,7 +1595,7 @@
         <v>6.5918490000000003E-3</v>
       </c>
       <c r="V11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -1587,49 +1603,49 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" t="s">
-        <v>25</v>
-      </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
         <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" t="s">
-        <v>31</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q12">
         <v>0.99830069942645017</v>
@@ -1647,7 +1663,7 @@
         <v>6.3845680000000002E-3</v>
       </c>
       <c r="V12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -1655,49 +1671,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q13">
         <v>0.99821320127711621</v>
@@ -1715,7 +1731,7 @@
         <v>6.0692970000000004E-3</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -1723,49 +1739,49 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q14">
         <v>0.99677855357728429</v>
@@ -1783,7 +1799,7 @@
         <v>6.1300829999999997E-3</v>
       </c>
       <c r="V14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -1791,49 +1807,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" t="s">
         <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>41</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q15">
         <v>0.99895056670387317</v>
@@ -1851,7 +1867,7 @@
         <v>5.9506280000000003E-3</v>
       </c>
       <c r="V15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -1859,49 +1875,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
       <c r="M16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>0.99890246238746294</v>
@@ -1919,7 +1935,7 @@
         <v>6.7929690000000003E-3</v>
       </c>
       <c r="V16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -1927,49 +1943,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s">
         <v>56</v>
       </c>
-      <c r="G17" t="s">
-        <v>59</v>
-      </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
         <v>28</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" t="s">
-        <v>31</v>
-      </c>
       <c r="M17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>0.99945252642349935</v>
@@ -1987,7 +2003,7 @@
         <v>6.4828250000000002E-3</v>
       </c>
       <c r="V17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -1995,49 +2011,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L18" t="s">
-        <v>31</v>
-      </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q18">
         <v>0.99938228768325643</v>
@@ -2055,7 +2071,7 @@
         <v>6.6560530000000003E-3</v>
       </c>
       <c r="V18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -2063,49 +2079,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q19">
         <v>0.99916280915593325</v>
@@ -2123,7 +2139,7 @@
         <v>6.3891740000000001E-3</v>
       </c>
       <c r="V19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -2131,49 +2147,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q20">
         <v>0.99950856934549082</v>
@@ -2191,7 +2207,7 @@
         <v>6.7251230000000004E-3</v>
       </c>
       <c r="V20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -2199,49 +2215,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q21">
         <v>0.99945347761596548</v>
@@ -2259,7 +2275,7 @@
         <v>6.8242509999999999E-3</v>
       </c>
       <c r="V21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -2267,49 +2283,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" t="s">
         <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" t="s">
-        <v>31</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q22">
         <v>0.99905673379425686</v>
@@ -2327,7 +2343,7 @@
         <v>6.4395320000000004E-3</v>
       </c>
       <c r="V22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -2335,49 +2351,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>0.99941076277468899</v>
@@ -2395,7 +2411,7 @@
         <v>6.4641109999999998E-3</v>
       </c>
       <c r="V23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -2403,49 +2419,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q24">
         <v>0.99861243792006416</v>
@@ -2463,7 +2479,7 @@
         <v>6.9191740000000002E-3</v>
       </c>
       <c r="V24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -2471,49 +2487,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q25">
         <v>0.99924760508401855</v>
@@ -2531,7 +2547,7 @@
         <v>6.7295740000000003E-3</v>
       </c>
       <c r="V25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -2539,49 +2555,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" t="s">
         <v>28</v>
-      </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" t="s">
-        <v>31</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q26">
         <v>0.99739240444582244</v>
@@ -2599,7 +2615,7 @@
         <v>6.34805E-3</v>
       </c>
       <c r="V26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -2607,49 +2623,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q27">
         <v>0.99928486096775526</v>
@@ -2667,7 +2683,7 @@
         <v>6.4094979999999996E-3</v>
       </c>
       <c r="V27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -2675,49 +2691,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>0.99921714777348758</v>
@@ -2735,7 +2751,7 @@
         <v>6.442896E-3</v>
       </c>
       <c r="V28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -2743,49 +2759,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" t="s">
         <v>38</v>
-      </c>
-      <c r="M29" t="s">
-        <v>41</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q29">
         <v>0.9989658171537199</v>
@@ -2803,7 +2819,7 @@
         <v>6.3560550000000002E-3</v>
       </c>
       <c r="V29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -2811,49 +2827,49 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
         <v>28</v>
       </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
       <c r="M30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q30">
         <v>0.99653412835182686</v>
@@ -2871,7 +2887,7 @@
         <v>5.356431E-3</v>
       </c>
       <c r="V30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -2879,49 +2895,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>24</v>
-      </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
         <v>28</v>
       </c>
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" t="s">
-        <v>31</v>
-      </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q31">
         <v>0.99677030381693388</v>
@@ -2939,7 +2955,7 @@
         <v>4.9924319999999998E-3</v>
       </c>
       <c r="V31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -2947,49 +2963,49 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
         <v>21</v>
       </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
         <v>28</v>
       </c>
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" t="s">
-        <v>31</v>
-      </c>
       <c r="M32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q32">
         <v>0.99658310003239547</v>
@@ -3007,7 +3023,7 @@
         <v>5.2881719999999998E-3</v>
       </c>
       <c r="V32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
@@ -3015,49 +3031,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
         <v>21</v>
       </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
-      </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q33">
         <v>0.99523677270135047</v>
@@ -3075,7 +3091,7 @@
         <v>4.8064889999999997E-3</v>
       </c>
       <c r="V33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
@@ -3083,49 +3099,49 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q34">
         <v>0.99674538738801077</v>
@@ -3143,7 +3159,7 @@
         <v>5.2382929999999998E-3</v>
       </c>
       <c r="V34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
@@ -3151,49 +3167,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
         <v>21</v>
       </c>
-      <c r="C35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q35">
         <v>0.99596972318966293</v>
@@ -3211,7 +3227,7 @@
         <v>5.3409599999999996E-3</v>
       </c>
       <c r="V35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
@@ -3219,49 +3235,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>24</v>
-      </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>42</v>
+      </c>
+      <c r="M36" t="s">
         <v>28</v>
-      </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" t="s">
-        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q36">
         <v>0.9949078464413279</v>
@@ -3279,7 +3295,7 @@
         <v>5.0569530000000003E-3</v>
       </c>
       <c r="V36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
@@ -3287,49 +3303,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" t="s">
-        <v>24</v>
-      </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q37">
         <v>0.99553333851305625</v>
@@ -3347,7 +3363,7 @@
         <v>4.9711759999999999E-3</v>
       </c>
       <c r="V37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
@@ -3355,49 +3371,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
-      </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q38">
         <v>0.99756990865229422</v>
@@ -3415,7 +3431,7 @@
         <v>5.4551260000000002E-3</v>
       </c>
       <c r="V38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
@@ -3423,49 +3439,49 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>24</v>
-      </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K39" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
       </c>
       <c r="O39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q39">
         <v>0.99594963072943243</v>
@@ -3483,7 +3499,7 @@
         <v>5.2828010000000002E-3</v>
       </c>
       <c r="V39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
@@ -3491,49 +3507,49 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
         <v>21</v>
       </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>24</v>
-      </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>40</v>
+      </c>
+      <c r="M40" t="s">
         <v>28</v>
-      </c>
-      <c r="J40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" t="s">
-        <v>30</v>
-      </c>
-      <c r="L40" t="s">
-        <v>43</v>
-      </c>
-      <c r="M40" t="s">
-        <v>31</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q40">
         <v>0.99718520169189251</v>
@@ -3551,7 +3567,7 @@
         <v>4.8841099999999997E-3</v>
       </c>
       <c r="V40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
@@ -3559,49 +3575,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
         <v>21</v>
       </c>
-      <c r="C41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>24</v>
-      </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q41">
         <v>0.9972310605530873</v>
@@ -3619,7 +3635,7 @@
         <v>5.0002900000000001E-3</v>
       </c>
       <c r="V41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
@@ -3627,49 +3643,49 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" t="s">
-        <v>24</v>
-      </c>
       <c r="F42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P42" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q42">
         <v>0.99728629897272991</v>
@@ -3687,7 +3703,7 @@
         <v>5.1827569999999996E-3</v>
       </c>
       <c r="V42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -3695,49 +3711,49 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K43" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" t="s">
         <v>38</v>
-      </c>
-      <c r="M43" t="s">
-        <v>41</v>
       </c>
       <c r="N43">
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q43">
         <v>0.99706429193131074</v>
@@ -3755,7 +3771,7 @@
         <v>5.0477020000000003E-3</v>
       </c>
       <c r="V43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
@@ -3763,49 +3779,49 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
-        <v>30</v>
-      </c>
-      <c r="L44" t="s">
-        <v>31</v>
-      </c>
       <c r="M44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q44">
         <v>0.99808139985465893</v>
@@ -3823,7 +3839,7 @@
         <v>1.34298E-10</v>
       </c>
       <c r="V44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
@@ -3831,49 +3847,49 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" t="s">
         <v>86</v>
       </c>
-      <c r="D45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" t="s">
-        <v>89</v>
-      </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
         <v>28</v>
       </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" t="s">
-        <v>31</v>
-      </c>
       <c r="M45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N45">
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q45">
         <v>0.99918872805825454</v>
@@ -3891,7 +3907,7 @@
         <v>1.2554170000000001E-10</v>
       </c>
       <c r="V45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
@@ -3899,49 +3915,49 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
         <v>28</v>
       </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L46" t="s">
-        <v>31</v>
-      </c>
       <c r="M46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N46">
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q46">
         <v>0.99890023643095749</v>
@@ -3959,7 +3975,7 @@
         <v>1.3480070000000001E-10</v>
       </c>
       <c r="V46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
@@ -3967,49 +3983,49 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q47">
         <v>0.99881920848184458</v>
@@ -4027,7 +4043,7 @@
         <v>1.280554E-10</v>
       </c>
       <c r="V47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
@@ -4035,49 +4051,49 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K48" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N48">
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q48">
         <v>0.99936183585216776</v>
@@ -4095,7 +4111,7 @@
         <v>1.306949E-10</v>
       </c>
       <c r="V48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
@@ -4103,49 +4119,49 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N49">
         <v>2</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q49">
         <v>0.99921796048385148</v>
@@ -4163,7 +4179,7 @@
         <v>1.2880959999999999E-10</v>
       </c>
       <c r="V49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
@@ -4171,49 +4187,49 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M50" t="s">
         <v>28</v>
-      </c>
-      <c r="J50" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" t="s">
-        <v>30</v>
-      </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M50" t="s">
-        <v>31</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q50">
         <v>0.99862849658994024</v>
@@ -4231,7 +4247,7 @@
         <v>1.2763650000000001E-10</v>
       </c>
       <c r="V50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
@@ -4239,49 +4255,49 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K51" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q51">
         <v>0.9991418185654527</v>
@@ -4299,7 +4315,7 @@
         <v>1.28223E-10</v>
       </c>
       <c r="V51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
@@ -4307,49 +4323,49 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q52">
         <v>0.99773645613832407</v>
@@ -4367,7 +4383,7 @@
         <v>1.2700799999999999E-10</v>
       </c>
       <c r="V52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
@@ -4375,49 +4391,49 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q53">
         <v>0.99875578053331027</v>
@@ -4435,7 +4451,7 @@
         <v>1.3299920000000001E-10</v>
       </c>
       <c r="V53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
@@ -4443,49 +4459,49 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" t="s">
         <v>28</v>
-      </c>
-      <c r="J54" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L54" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" t="s">
-        <v>31</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q54">
         <v>0.99810643809448418</v>
@@ -4503,7 +4519,7 @@
         <v>1.316585E-10</v>
       </c>
       <c r="V54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
@@ -4511,49 +4527,49 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q55">
         <v>0.99821802042734242</v>
@@ -4571,7 +4587,7 @@
         <v>1.3366950000000001E-10</v>
       </c>
       <c r="V55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
@@ -4579,49 +4595,49 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N56">
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q56">
         <v>0.99854736783593312</v>
@@ -4639,7 +4655,7 @@
         <v>1.311139E-10</v>
       </c>
       <c r="V56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
@@ -4647,49 +4663,49 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
         <v>38</v>
-      </c>
-      <c r="M57" t="s">
-        <v>41</v>
       </c>
       <c r="N57">
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q57">
         <v>0.99827369655402265</v>
@@ -4707,7 +4723,7 @@
         <v>1.2964749999999999E-10</v>
       </c>
       <c r="V57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
@@ -4715,49 +4731,49 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I58" t="s">
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
         <v>28</v>
       </c>
-      <c r="J58" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" t="s">
-        <v>31</v>
-      </c>
       <c r="M58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q58">
         <v>0.99862548455777633</v>
@@ -4775,7 +4791,7 @@
         <v>4.8481039999999998E-3</v>
       </c>
       <c r="V58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
@@ -4783,49 +4799,49 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
         <v>28</v>
       </c>
-      <c r="J59" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" t="s">
-        <v>30</v>
-      </c>
-      <c r="L59" t="s">
-        <v>31</v>
-      </c>
       <c r="M59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N59">
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q59">
         <v>0.99911231363316311</v>
@@ -4843,7 +4859,7 @@
         <v>4.2756829999999997E-3</v>
       </c>
       <c r="V59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
@@ -4851,49 +4867,49 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
         <v>28</v>
       </c>
-      <c r="J60" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" t="s">
-        <v>31</v>
-      </c>
       <c r="M60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q60">
         <v>0.99905816801281322</v>
@@ -4911,7 +4927,7 @@
         <v>4.4155260000000003E-3</v>
       </c>
       <c r="V60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
@@ -4919,49 +4935,49 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q61">
         <v>0.99872487854449576</v>
@@ -4979,7 +4995,7 @@
         <v>4.5820399999999999E-3</v>
       </c>
       <c r="V61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
@@ -4987,49 +5003,49 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I62" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K62" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q62">
         <v>0.99940595181875425</v>
@@ -5047,7 +5063,7 @@
         <v>4.4466760000000001E-3</v>
       </c>
       <c r="V62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
@@ -5055,49 +5071,49 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N63">
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q63">
         <v>0.99921412968370604</v>
@@ -5115,7 +5131,7 @@
         <v>3.4586550000000001E-3</v>
       </c>
       <c r="V63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
@@ -5123,49 +5139,49 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H64" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" t="s">
         <v>28</v>
-      </c>
-      <c r="J64" t="s">
-        <v>29</v>
-      </c>
-      <c r="K64" t="s">
-        <v>30</v>
-      </c>
-      <c r="L64" t="s">
-        <v>45</v>
-      </c>
-      <c r="M64" t="s">
-        <v>31</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q64">
         <v>0.99859914472612266</v>
@@ -5183,7 +5199,7 @@
         <v>4.697751E-3</v>
       </c>
       <c r="V64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
@@ -5191,49 +5207,49 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G65" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P65" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q65">
         <v>0.99903858042752514</v>
@@ -5251,7 +5267,7 @@
         <v>4.4665499999999997E-3</v>
       </c>
       <c r="V65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
@@ -5259,49 +5275,49 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H66" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N66">
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q66">
         <v>0.9975905896988978</v>
@@ -5319,7 +5335,7 @@
         <v>4.3849300000000004E-3</v>
       </c>
       <c r="V66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
@@ -5327,49 +5343,49 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N67">
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q67">
         <v>0.9989363288457962</v>
@@ -5387,7 +5403,7 @@
         <v>3.800664E-3</v>
       </c>
       <c r="V67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
@@ -5395,49 +5411,49 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H68" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68" t="s">
         <v>28</v>
-      </c>
-      <c r="J68" t="s">
-        <v>29</v>
-      </c>
-      <c r="K68" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" t="s">
-        <v>31</v>
       </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P68" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q68">
         <v>0.99798378160970413</v>
@@ -5455,7 +5471,7 @@
         <v>4.6984959999999999E-3</v>
       </c>
       <c r="V68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
@@ -5463,49 +5479,49 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L69" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N69">
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P69" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q69">
         <v>0.99816866101768975</v>
@@ -5523,7 +5539,7 @@
         <v>4.886194E-3</v>
       </c>
       <c r="V69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
@@ -5531,49 +5547,49 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M70" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N70">
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P70" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q70">
         <v>0.99843568472961863</v>
@@ -5591,7 +5607,7 @@
         <v>4.6331539999999996E-3</v>
       </c>
       <c r="V70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
@@ -5599,49 +5615,49 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K71" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" t="s">
         <v>38</v>
-      </c>
-      <c r="M71" t="s">
-        <v>41</v>
       </c>
       <c r="N71">
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P71" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q71">
         <v>0.99826319175141165</v>
@@ -5659,7 +5675,7 @@
         <v>4.295274E-3</v>
       </c>
       <c r="V71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
@@ -5667,49 +5683,49 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H72" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s">
         <v>28</v>
       </c>
-      <c r="J72" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" t="s">
-        <v>30</v>
-      </c>
-      <c r="L72" t="s">
-        <v>31</v>
-      </c>
       <c r="M72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N72">
         <v>2</v>
       </c>
       <c r="O72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q72">
         <v>0.9988518017944773</v>
@@ -5727,7 +5743,7 @@
         <v>1.3337620000000001E-10</v>
       </c>
       <c r="V72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
@@ -5735,49 +5751,49 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
         <v>28</v>
       </c>
-      <c r="J73" t="s">
-        <v>29</v>
-      </c>
-      <c r="K73" t="s">
-        <v>30</v>
-      </c>
-      <c r="L73" t="s">
-        <v>31</v>
-      </c>
       <c r="M73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N73">
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q73">
         <v>0.99915945076314661</v>
@@ -5795,7 +5811,7 @@
         <v>1.283487E-10</v>
       </c>
       <c r="V73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
@@ -5803,49 +5819,49 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" t="s">
         <v>116</v>
       </c>
-      <c r="D74" t="s">
-        <v>23</v>
-      </c>
-      <c r="E74" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" t="s">
-        <v>119</v>
-      </c>
       <c r="H74" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
         <v>28</v>
       </c>
-      <c r="J74" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" t="s">
-        <v>31</v>
-      </c>
       <c r="M74" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N74">
         <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P74" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q74">
         <v>0.99891814643777865</v>
@@ -5863,7 +5879,7 @@
         <v>1.2713369999999999E-10</v>
       </c>
       <c r="V74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
@@ -5871,49 +5887,49 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N75">
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q75">
         <v>0.99878018405116309</v>
@@ -5931,7 +5947,7 @@
         <v>1.252065E-10</v>
       </c>
       <c r="V75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
@@ -5939,49 +5955,49 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G76" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N76">
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P76" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q76">
         <v>0.99919148275948766</v>
@@ -5999,7 +6015,7 @@
         <v>1.2570930000000001E-10</v>
       </c>
       <c r="V76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
@@ -6007,49 +6023,49 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K77" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N77">
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P77" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q77">
         <v>0.99924888558071423</v>
@@ -6067,7 +6083,7 @@
         <v>1.353872E-10</v>
       </c>
       <c r="V77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
@@ -6075,49 +6091,49 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I78" t="s">
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>42</v>
+      </c>
+      <c r="M78" t="s">
         <v>28</v>
-      </c>
-      <c r="J78" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" t="s">
-        <v>45</v>
-      </c>
-      <c r="M78" t="s">
-        <v>31</v>
       </c>
       <c r="N78">
         <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P78" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q78">
         <v>0.99858406034667346</v>
@@ -6135,7 +6151,7 @@
         <v>1.2223190000000001E-10</v>
       </c>
       <c r="V78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
@@ -6143,49 +6159,49 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N79">
         <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P79" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q79">
         <v>0.99920404344521008</v>
@@ -6203,7 +6219,7 @@
         <v>1.3270590000000001E-10</v>
       </c>
       <c r="V79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
@@ -6211,49 +6227,49 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K80" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P80" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q80">
         <v>0.9983465692467921</v>
@@ -6271,7 +6287,7 @@
         <v>1.3006649999999999E-10</v>
       </c>
       <c r="V80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
@@ -6279,49 +6295,49 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G81" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I81" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N81">
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P81" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q81">
         <v>0.99890300959487255</v>
@@ -6339,7 +6355,7 @@
         <v>1.2910280000000001E-10</v>
       </c>
       <c r="V81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
@@ -6347,49 +6363,49 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I82" t="s">
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>26</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>40</v>
+      </c>
+      <c r="M82" t="s">
         <v>28</v>
-      </c>
-      <c r="J82" t="s">
-        <v>29</v>
-      </c>
-      <c r="K82" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" t="s">
-        <v>43</v>
-      </c>
-      <c r="M82" t="s">
-        <v>31</v>
       </c>
       <c r="N82">
         <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q82">
         <v>0.99821602840213797</v>
@@ -6407,7 +6423,7 @@
         <v>1.2830680000000001E-10</v>
       </c>
       <c r="V82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
@@ -6415,49 +6431,49 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L83" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N83">
         <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P83" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q83">
         <v>0.99894866206164168</v>
@@ -6475,7 +6491,7 @@
         <v>1.2772029999999999E-10</v>
       </c>
       <c r="V83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
@@ -6483,49 +6499,49 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I84" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N84">
         <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q84">
         <v>0.99886983160449805</v>
@@ -6543,7 +6559,7 @@
         <v>1.3002449999999999E-10</v>
       </c>
       <c r="V84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
@@ -6551,49 +6567,49 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H85" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" t="s">
         <v>38</v>
-      </c>
-      <c r="M85" t="s">
-        <v>41</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q85">
         <v>0.99864431595268877</v>
@@ -6611,7 +6627,7 @@
         <v>1.334181E-10</v>
       </c>
       <c r="V85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
@@ -6619,49 +6635,49 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>26</v>
+      </c>
+      <c r="K86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
         <v>28</v>
       </c>
-      <c r="J86" t="s">
-        <v>29</v>
-      </c>
-      <c r="K86" t="s">
-        <v>30</v>
-      </c>
-      <c r="L86" t="s">
-        <v>31</v>
-      </c>
       <c r="M86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N86">
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P86" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q86">
         <v>0.99846598943793785</v>
@@ -6679,7 +6695,7 @@
         <v>4.2215689999999997E-3</v>
       </c>
       <c r="V86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
@@ -6687,49 +6703,49 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
         <v>28</v>
       </c>
-      <c r="J87" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" t="s">
-        <v>30</v>
-      </c>
-      <c r="L87" t="s">
-        <v>31</v>
-      </c>
       <c r="M87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N87">
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P87" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q87">
         <v>0.99931916651735353</v>
@@ -6747,7 +6763,7 @@
         <v>2.944735E-3</v>
       </c>
       <c r="V87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
@@ -6755,49 +6771,49 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="s">
-        <v>29</v>
-      </c>
-      <c r="K88" t="s">
-        <v>30</v>
-      </c>
-      <c r="L88" t="s">
-        <v>31</v>
-      </c>
       <c r="M88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N88">
         <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P88" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q88">
         <v>0.99904061939558308</v>
@@ -6815,7 +6831,7 @@
         <v>4.5118720000000001E-3</v>
       </c>
       <c r="V88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
@@ -6823,49 +6839,49 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N89">
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P89" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q89">
         <v>0.99876958915975034</v>
@@ -6883,7 +6899,7 @@
         <v>1.9226200000000001E-3</v>
       </c>
       <c r="V89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
@@ -6891,49 +6907,49 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F90" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G90" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q90">
         <v>0.99907758573643479</v>
@@ -6951,7 +6967,7 @@
         <v>3.4936540000000001E-3</v>
       </c>
       <c r="V90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
@@ -6959,49 +6975,49 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K91" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M91" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N91">
         <v>0</v>
       </c>
       <c r="O91" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P91" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q91">
         <v>0.99912686142991336</v>
@@ -7019,7 +7035,7 @@
         <v>4.3356669999999996E-3</v>
       </c>
       <c r="V91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
@@ -7027,49 +7043,49 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G92" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H92" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I92" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K92" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" t="s">
+        <v>42</v>
+      </c>
+      <c r="M92" t="s">
         <v>28</v>
-      </c>
-      <c r="J92" t="s">
-        <v>29</v>
-      </c>
-      <c r="K92" t="s">
-        <v>30</v>
-      </c>
-      <c r="L92" t="s">
-        <v>45</v>
-      </c>
-      <c r="M92" t="s">
-        <v>31</v>
       </c>
       <c r="N92">
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P92" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q92">
         <v>0.99881884248464703</v>
@@ -7087,7 +7103,7 @@
         <v>2.2745700000000001E-3</v>
       </c>
       <c r="V92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
@@ -7095,49 +7111,49 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K93" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N93">
         <v>0</v>
       </c>
       <c r="O93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q93">
         <v>0.9992198704319869</v>
@@ -7155,7 +7171,7 @@
         <v>2.1451339999999999E-3</v>
       </c>
       <c r="V93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
@@ -7163,49 +7179,49 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H94" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K94" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P94" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q94">
         <v>0.99829412801775164</v>
@@ -7223,7 +7239,7 @@
         <v>5.1870340000000001E-3</v>
       </c>
       <c r="V94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
@@ -7231,49 +7247,49 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H95" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I95" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K95" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M95" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N95">
         <v>0</v>
       </c>
       <c r="O95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P95" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q95">
         <v>0.99893250118618193</v>
@@ -7291,7 +7307,7 @@
         <v>3.6225139999999999E-3</v>
       </c>
       <c r="V95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
@@ -7299,49 +7315,49 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G96" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H96" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I96" t="s">
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" t="s">
+        <v>27</v>
+      </c>
+      <c r="L96" t="s">
+        <v>40</v>
+      </c>
+      <c r="M96" t="s">
         <v>28</v>
-      </c>
-      <c r="J96" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" t="s">
-        <v>30</v>
-      </c>
-      <c r="L96" t="s">
-        <v>43</v>
-      </c>
-      <c r="M96" t="s">
-        <v>31</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q96">
         <v>0.99837129226700894</v>
@@ -7359,7 +7375,7 @@
         <v>4.2568939999999998E-3</v>
       </c>
       <c r="V96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
@@ -7367,49 +7383,49 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L97" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N97">
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q97">
         <v>0.99876067222003961</v>
@@ -7427,7 +7443,7 @@
         <v>4.6344280000000003E-3</v>
       </c>
       <c r="V97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
@@ -7435,49 +7451,49 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H98" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I98" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N98">
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P98" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q98">
         <v>0.9980038966689313</v>
@@ -7495,7 +7511,7 @@
         <v>4.386544E-3</v>
       </c>
       <c r="V98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
@@ -7503,49 +7519,49 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G99" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H99" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K99" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L99" t="s">
+        <v>35</v>
+      </c>
+      <c r="M99" t="s">
         <v>38</v>
-      </c>
-      <c r="M99" t="s">
-        <v>41</v>
       </c>
       <c r="N99">
         <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P99" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q99">
         <v>0.99859776464070771</v>
@@ -7563,11 +7579,10 @@
         <v>4.2007579999999997E-3</v>
       </c>
       <c r="V99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V99" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
